--- a/03Acoustic/20250407/round2/FinalResult_mode1_rand0_20250424_111930.xlsx
+++ b/03Acoustic/20250407/round2/FinalResult_mode1_rand0_20250424_111930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35463B2-1548-4754-9C72-893649434C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A339F8C-D680-4939-B278-DE38992FC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC50" sqref="AC50"/>
+      <selection activeCell="R2" sqref="R2:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,6 +2241,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R32">
+        <f>AVERAGE(R2:R31)</f>
+        <v>0.43446079220673012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
